--- a/biology/Zoologie/Diamant_(anatomie)/Diamant_(anatomie).xlsx
+++ b/biology/Zoologie/Diamant_(anatomie)/Diamant_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diamant (ou dent de délivrance, ruptor ovi) est une pièce cornée blanche que les petits des animaux ovipares (oiseaux, reptiles et monotrèmes) possèdent à l'extrémité du bec ou du museau lors de l'éclosion et utilisent pour casser la coquille. Ce diamant disparaît par érosion naturelle quelques jours après la naissance.
 Sur les autres projets Wikimedia :
